--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N2">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q2">
-        <v>194.1449157816495</v>
+        <v>204.5697847255749</v>
       </c>
       <c r="R2">
-        <v>1747.304242034846</v>
+        <v>1841.128062530174</v>
       </c>
       <c r="S2">
-        <v>0.4359185269458019</v>
+        <v>0.4445516669787946</v>
       </c>
       <c r="T2">
-        <v>0.435918526945802</v>
+        <v>0.4445516669787946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
         <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q3">
         <v>28.93770653965155</v>
@@ -632,10 +632,10 @@
         <v>260.439358856864</v>
       </c>
       <c r="S3">
-        <v>0.06497456993487292</v>
+        <v>0.06288468112728575</v>
       </c>
       <c r="T3">
-        <v>0.06497456993487292</v>
+        <v>0.06288468112728575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,25 +679,25 @@
         <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q4">
-        <v>90.60131959584933</v>
+        <v>90.6013195958493</v>
       </c>
       <c r="R4">
-        <v>815.4118763626441</v>
+        <v>815.4118763626439</v>
       </c>
       <c r="S4">
-        <v>0.2034294517502965</v>
+        <v>0.1968862005248911</v>
       </c>
       <c r="T4">
-        <v>0.2034294517502966</v>
+        <v>0.1968862005248911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N5">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q5">
-        <v>81.50281998801898</v>
+        <v>85.87922208701099</v>
       </c>
       <c r="R5">
-        <v>733.5253798921709</v>
+        <v>772.9129987830988</v>
       </c>
       <c r="S5">
-        <v>0.1830003587169098</v>
+        <v>0.1866245857805312</v>
       </c>
       <c r="T5">
-        <v>0.1830003587169098</v>
+        <v>0.1866245857805312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
         <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P6">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q6">
         <v>12.148166113296</v>
@@ -818,10 +818,10 @@
         <v>109.333495019664</v>
       </c>
       <c r="S6">
-        <v>0.02727658695505967</v>
+        <v>0.02639924319051153</v>
       </c>
       <c r="T6">
-        <v>0.02727658695505966</v>
+        <v>0.02639924319051152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,25 +865,25 @@
         <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q7">
-        <v>38.034799994466</v>
+        <v>38.03479999446598</v>
       </c>
       <c r="R7">
-        <v>342.313199950194</v>
+        <v>342.3131999501939</v>
       </c>
       <c r="S7">
-        <v>0.08540050569705906</v>
+        <v>0.08265362239798577</v>
       </c>
       <c r="T7">
-        <v>0.08540050569705906</v>
+        <v>0.08265362239798577</v>
       </c>
     </row>
   </sheetData>
